--- a/results Ex2/Tests 1,2,5.xlsx
+++ b/results Ex2/Tests 1,2,5.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyakobi\Documents\GitHub\multi\results Ex2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>Test 1</t>
   </si>
@@ -138,17 +133,79 @@
   </si>
   <si>
     <t>SpeedUp n=10</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>כלומר אנו מסיקים כי כאשר יש מנעול אחד שפונים אילו הרבה חוטים, כדאי לבחור במימושים המורכבים יותר  בנוסף, הרנדומיזציה באלגוריתם Backoff נראת כפתרון הכי יעיל במקרה של מנועל אחד והרבה חוטים.</t>
+  </si>
+  <si>
+    <t>עבור 8,64 חוטים אנו רואים כי היעילות של MCS,CLH קרובה בין המימושים. בנוסף אנו רואים כי במימושים אלו אין ירידה משמעותית בביצועים בין 8 ל64 חוטים.</t>
+  </si>
+  <si>
+    <t>אנו רואים כי עבור חוט אחד , המימוש הכי פשוט - TAS הוא גם הכי יעיל ( ביחד עם Backoff), עובדה שמצביעה על כך כי המימושים המסובכים יותר יעילים במספר חוטים גדול.</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>SpeedUp</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>throughput</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>LockFree</t>
+  </si>
+  <si>
+    <t>BackOff</t>
+  </si>
+  <si>
+    <t>RandomQueue</t>
+  </si>
+  <si>
+    <t>LastQueue</t>
+  </si>
+  <si>
+    <t>W=1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,8 +230,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,6 +248,870 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="he-IL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TAS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$28,Sheet1!$C$31,Sheet1!$C$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26504163369541756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7002733616286593E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3402273217754116E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Backoff</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$28,Sheet1!$D$31,Sheet1!$D$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26431776490899933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15243957269261202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6494766563556573E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CLH</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$E$28,Sheet1!$E$31,Sheet1!$E$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.5798683547946189E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.391932235091E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2727861304942082E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MCS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$F$28,Sheet1!$F$31,Sheet1!$F$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16556362851593409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8194374505431257E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3982986835479459E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="50815360"/>
+        <c:axId val="50809472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50815360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50809472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50809472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50815360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="he-IL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lock-Free</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$62,Sheet1!$J$68,Sheet1!$J$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$62,Sheet1!$M$68,Sheet1!$M$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.84719101123595508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1113585746102448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TAS_Random-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$63,Sheet1!$J$69,Sheet1!$J$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$63,Sheet1!$M$69,Sheet1!$M$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7640449438202247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9844097995545658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4555555555555555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TAS_Last-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$64,Sheet1!$J$68,Sheet1!$J$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$64,Sheet1!$M$70,Sheet1!$M$76)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.82247191011235954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0066815144766146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>BackOff_RandomQueue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$62,Sheet1!$J$71,Sheet1!$J$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$66,Sheet1!$M$72,Sheet1!$M$78)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78426966292134837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8797327394209353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7377777777777776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>BackOff_LastQueue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$64,Sheet1!$J$69,Sheet1!$J$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$67,Sheet1!$M$73,Sheet1!$M$79)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.89662921348314606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9242761692650334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6822222222222223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="52877568"/>
+        <c:axId val="50815744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52877568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50815744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50815744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52877568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="he-IL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lock-Free</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$62,Sheet1!$J$68,Sheet1!$J$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$81,Sheet1!$M$87,Sheet1!$M$93)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98717948717948723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2435897435897436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5897435897435894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TAS_Random-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$63,Sheet1!$J$69,Sheet1!$J$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$82,Sheet1!$M$88,Sheet1!$M$94)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.94871794871794868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7948717948717947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0128205128205128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TAS_Last-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$67,Sheet1!$J$68,Sheet1!$J$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$83,Sheet1!$M$89,Sheet1!$M$95)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.89743589743589747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6025641025641026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4102564102564106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>BackOff_RandomQueue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$62,Sheet1!$J$71,Sheet1!$J$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$85,Sheet1!$M$91,Sheet1!$M$97)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97435897435897434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9230769230769234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>BackOff_LastQueue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$64,Sheet1!$J$69,Sheet1!$J$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$86,Sheet1!$M$92,Sheet1!$M$98)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98717948717948723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7564102564102564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="104432000"/>
+        <c:axId val="104433536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="104432000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104433536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="104433536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104432000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="תרשים 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="תרשים 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -235,7 +1157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +1192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,33 +1369,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -489,8 +1411,49 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3">
+        <v>148277.33333333334</v>
+      </c>
+      <c r="R3">
+        <v>39299.666666666664</v>
+      </c>
+      <c r="S3">
+        <v>39192.333333333336</v>
+      </c>
+      <c r="T3">
+        <v>12722</v>
+      </c>
+      <c r="U3">
+        <v>24549.333333333332</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -509,8 +1472,29 @@
       <c r="G4">
         <v>24836</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.26504163369541756</v>
+      </c>
+      <c r="S4">
+        <v>0.26431776490899933</v>
+      </c>
+      <c r="T4">
+        <v>8.5798683547946189E-2</v>
+      </c>
+      <c r="U4">
+        <v>0.16556362851593409</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -529,8 +1513,23 @@
       <c r="G5">
         <v>24290</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>548.66666666666663</v>
+      </c>
+      <c r="S5">
+        <v>22603.333333333332</v>
+      </c>
+      <c r="T5">
+        <v>1244.3333333333333</v>
+      </c>
+      <c r="U5">
+        <v>1456</v>
+      </c>
+      <c r="V5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -549,8 +1548,23 @@
       <c r="G6">
         <v>24415</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>3.7002733616286593E-3</v>
+      </c>
+      <c r="S6">
+        <v>0.15243957269261202</v>
+      </c>
+      <c r="T6">
+        <v>8.391932235091E-3</v>
+      </c>
+      <c r="U6">
+        <v>9.8194374505431257E-3</v>
+      </c>
+      <c r="V6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -574,8 +1588,23 @@
         <f t="shared" si="0"/>
         <v>24513.666666666668</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>123.66666666666667</v>
+      </c>
+      <c r="S7">
+        <v>9859.6666666666661</v>
+      </c>
+      <c r="T7">
+        <v>1226.6666666666667</v>
+      </c>
+      <c r="U7">
+        <v>1097</v>
+      </c>
+      <c r="V7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -595,8 +1624,23 @@
         <f>G7/C7</f>
         <v>0.16532308826703115</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>8.3402273217754116E-4</v>
+      </c>
+      <c r="S8">
+        <v>6.6494766563556573E-2</v>
+      </c>
+      <c r="T8">
+        <v>8.2727861304942082E-3</v>
+      </c>
+      <c r="U8">
+        <v>7.3982986835479459E-3</v>
+      </c>
+      <c r="V8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -612,13 +1656,19 @@
       <c r="F11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -634,8 +1684,11 @@
       <c r="F13">
         <v>24931</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -651,8 +1704,11 @@
       <c r="F14">
         <v>748</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -669,12 +1725,12 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -691,7 +1747,7 @@
         <v>24335</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -708,7 +1764,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -725,12 +1781,12 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -747,7 +1803,7 @@
         <v>24382</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -764,7 +1820,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -781,7 +1837,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -805,7 +1861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -830,7 +1886,7 @@
         <v>148277.33333333334</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -851,7 +1907,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -872,7 +1928,7 @@
         <v>9.8194374505431257E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -893,7 +1949,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -914,7 +1970,7 @@
         <v>7.3982986835479459E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -940,12 +1996,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -971,7 +2027,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -997,7 +2053,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1022,8 +2078,16 @@
       <c r="H42">
         <v>1207</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="W42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="W43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1051,8 +2115,11 @@
         <f>H40/B40</f>
         <v>0.89662921348314606</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="W44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -1081,7 +2148,7 @@
         <v>1.9242761692650334</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1110,12 +2177,20 @@
         <v>2.6822222222222223</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23">
+      <c r="K48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15">
       <c r="A49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K49" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -1140,8 +2215,17 @@
       <c r="H50">
         <v>77</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1166,8 +2250,17 @@
       <c r="H51">
         <v>270</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1000</v>
+      </c>
+      <c r="M51">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -1192,8 +2285,28 @@
       <c r="H52">
         <v>605</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>1000</v>
+      </c>
+      <c r="M52">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="K53">
+        <v>10</v>
+      </c>
+      <c r="L53">
+        <v>1000</v>
+      </c>
+      <c r="M53">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -1222,7 +2335,7 @@
         <v>0.98717948717948723</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -1250,8 +2363,17 @@
         <f t="shared" ref="H55:H56" si="13">H51/B51</f>
         <v>3.4615384615384617</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>6000</v>
+      </c>
+      <c r="M55">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -1279,8 +2401,779 @@
         <f t="shared" si="13"/>
         <v>7.7564102564102564</v>
       </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>6000</v>
+      </c>
+      <c r="M56">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="K57">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>6000</v>
+      </c>
+      <c r="M57">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="Q59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15">
+      <c r="J60" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s">
+        <v>47</v>
+      </c>
+      <c r="L61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1000</v>
+      </c>
+      <c r="L62">
+        <v>377</v>
+      </c>
+      <c r="M62">
+        <v>0.84719101123595508</v>
+      </c>
+      <c r="N62" t="s">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1000</v>
+      </c>
+      <c r="L63">
+        <v>340</v>
+      </c>
+      <c r="M63">
+        <v>0.7640449438202247</v>
+      </c>
+      <c r="N63" t="s">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1000</v>
+      </c>
+      <c r="L64">
+        <v>366</v>
+      </c>
+      <c r="M64">
+        <v>0.82247191011235954</v>
+      </c>
+      <c r="N64" t="s">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15">
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1000</v>
+      </c>
+      <c r="L65">
+        <v>410</v>
+      </c>
+      <c r="M65">
+        <v>0.9213483146067416</v>
+      </c>
+      <c r="N65" t="s">
+        <v>52</v>
+      </c>
+      <c r="O65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15">
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1000</v>
+      </c>
+      <c r="L66">
+        <v>349</v>
+      </c>
+      <c r="M66">
+        <v>0.78426966292134837</v>
+      </c>
+      <c r="N66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="10:15">
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1000</v>
+      </c>
+      <c r="L67">
+        <v>399</v>
+      </c>
+      <c r="M67">
+        <v>0.89662921348314606</v>
+      </c>
+      <c r="N67" t="s">
+        <v>52</v>
+      </c>
+      <c r="O67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="10:15">
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>1000</v>
+      </c>
+      <c r="L68">
+        <v>948</v>
+      </c>
+      <c r="M68">
+        <v>2.1113585746102448</v>
+      </c>
+      <c r="N68" t="s">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="10:15">
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>1000</v>
+      </c>
+      <c r="L69">
+        <v>891</v>
+      </c>
+      <c r="M69">
+        <v>1.9844097995545658</v>
+      </c>
+      <c r="N69" t="s">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="10:15">
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>1000</v>
+      </c>
+      <c r="L70">
+        <v>901</v>
+      </c>
+      <c r="M70">
+        <v>2.0066815144766146</v>
+      </c>
+      <c r="N70" t="s">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="10:15">
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>1000</v>
+      </c>
+      <c r="L71">
+        <v>912</v>
+      </c>
+      <c r="M71">
+        <v>2.0311804008908685</v>
+      </c>
+      <c r="N71" t="s">
+        <v>52</v>
+      </c>
+      <c r="O71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="10:15">
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>1000</v>
+      </c>
+      <c r="L72">
+        <v>844</v>
+      </c>
+      <c r="M72">
+        <v>1.8797327394209353</v>
+      </c>
+      <c r="N72" t="s">
+        <v>52</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="10:15">
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>1000</v>
+      </c>
+      <c r="L73">
+        <v>864</v>
+      </c>
+      <c r="M73">
+        <v>1.9242761692650334</v>
+      </c>
+      <c r="N73" t="s">
+        <v>52</v>
+      </c>
+      <c r="O73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="10:15">
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>1000</v>
+      </c>
+      <c r="L74">
+        <v>1242</v>
+      </c>
+      <c r="M74">
+        <v>2.76</v>
+      </c>
+      <c r="N74" t="s">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="10:15">
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <v>1000</v>
+      </c>
+      <c r="L75">
+        <v>655</v>
+      </c>
+      <c r="M75">
+        <v>1.4555555555555555</v>
+      </c>
+      <c r="N75" t="s">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="10:15">
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>1000</v>
+      </c>
+      <c r="L76">
+        <v>396</v>
+      </c>
+      <c r="M76">
+        <v>0.88</v>
+      </c>
+      <c r="N76" t="s">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="10:15">
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <v>1000</v>
+      </c>
+      <c r="L77">
+        <v>1730</v>
+      </c>
+      <c r="M77">
+        <v>3.8444444444444446</v>
+      </c>
+      <c r="N77" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="10:15">
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <v>1000</v>
+      </c>
+      <c r="L78">
+        <v>1232</v>
+      </c>
+      <c r="M78">
+        <v>2.7377777777777776</v>
+      </c>
+      <c r="N78" t="s">
+        <v>52</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="10:15">
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>1000</v>
+      </c>
+      <c r="L79">
+        <v>1207</v>
+      </c>
+      <c r="M79">
+        <v>2.6822222222222223</v>
+      </c>
+      <c r="N79" t="s">
+        <v>52</v>
+      </c>
+      <c r="O79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="10:15">
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>6000</v>
+      </c>
+      <c r="L81">
+        <v>77</v>
+      </c>
+      <c r="M81">
+        <v>0.98717948717948723</v>
+      </c>
+      <c r="N81" t="s">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="10:15">
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>6000</v>
+      </c>
+      <c r="L82">
+        <v>74</v>
+      </c>
+      <c r="M82">
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="N82" t="s">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="10:15">
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>6000</v>
+      </c>
+      <c r="L83">
+        <v>70</v>
+      </c>
+      <c r="M83">
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="N83" t="s">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="10:15">
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>6000</v>
+      </c>
+      <c r="L84">
+        <v>77</v>
+      </c>
+      <c r="M84">
+        <v>0.98717948717948723</v>
+      </c>
+      <c r="N84" t="s">
+        <v>52</v>
+      </c>
+      <c r="O84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="10:15">
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>6000</v>
+      </c>
+      <c r="L85">
+        <v>76</v>
+      </c>
+      <c r="M85">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="N85" t="s">
+        <v>52</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="10:15">
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>6000</v>
+      </c>
+      <c r="L86">
+        <v>77</v>
+      </c>
+      <c r="M86">
+        <v>0.98717948717948723</v>
+      </c>
+      <c r="N86" t="s">
+        <v>52</v>
+      </c>
+      <c r="O86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="10:15">
+      <c r="J87">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>6000</v>
+      </c>
+      <c r="L87">
+        <v>175</v>
+      </c>
+      <c r="M87">
+        <v>2.2435897435897436</v>
+      </c>
+      <c r="N87" t="s">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="10:15">
+      <c r="J88">
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <v>6000</v>
+      </c>
+      <c r="L88">
+        <v>296</v>
+      </c>
+      <c r="M88">
+        <v>3.7948717948717947</v>
+      </c>
+      <c r="N88" t="s">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="10:15">
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>6000</v>
+      </c>
+      <c r="L89">
+        <v>281</v>
+      </c>
+      <c r="M89">
+        <v>3.6025641025641026</v>
+      </c>
+      <c r="N89" t="s">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="10:15">
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>6000</v>
+      </c>
+      <c r="L90">
+        <v>176</v>
+      </c>
+      <c r="M90">
+        <v>2.2564102564102564</v>
+      </c>
+      <c r="N90" t="s">
+        <v>52</v>
+      </c>
+      <c r="O90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="10:15">
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>6000</v>
+      </c>
+      <c r="L91">
+        <v>288</v>
+      </c>
+      <c r="M91">
+        <v>3.6923076923076925</v>
+      </c>
+      <c r="N91" t="s">
+        <v>52</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="10:15">
+      <c r="J92">
+        <v>4</v>
+      </c>
+      <c r="K92">
+        <v>6000</v>
+      </c>
+      <c r="L92">
+        <v>270</v>
+      </c>
+      <c r="M92">
+        <v>3.4615384615384617</v>
+      </c>
+      <c r="N92" t="s">
+        <v>52</v>
+      </c>
+      <c r="O92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="10:15">
+      <c r="J93">
+        <v>10</v>
+      </c>
+      <c r="K93">
+        <v>6000</v>
+      </c>
+      <c r="L93">
+        <v>436</v>
+      </c>
+      <c r="M93">
+        <v>5.5897435897435894</v>
+      </c>
+      <c r="N93" t="s">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="10:15">
+      <c r="J94">
+        <v>10</v>
+      </c>
+      <c r="K94">
+        <v>6000</v>
+      </c>
+      <c r="L94">
+        <v>703</v>
+      </c>
+      <c r="M94">
+        <v>9.0128205128205128</v>
+      </c>
+      <c r="N94" t="s">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="10:15">
+      <c r="J95">
+        <v>10</v>
+      </c>
+      <c r="K95">
+        <v>6000</v>
+      </c>
+      <c r="L95">
+        <v>656</v>
+      </c>
+      <c r="M95">
+        <v>8.4102564102564106</v>
+      </c>
+      <c r="N95" t="s">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="10:15">
+      <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96">
+        <v>6000</v>
+      </c>
+      <c r="L96">
+        <v>433</v>
+      </c>
+      <c r="M96">
+        <v>5.5512820512820511</v>
+      </c>
+      <c r="N96" t="s">
+        <v>52</v>
+      </c>
+      <c r="O96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="10:15">
+      <c r="J97">
+        <v>10</v>
+      </c>
+      <c r="K97">
+        <v>6000</v>
+      </c>
+      <c r="L97">
+        <v>696</v>
+      </c>
+      <c r="M97">
+        <v>8.9230769230769234</v>
+      </c>
+      <c r="N97" t="s">
+        <v>52</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="10:15">
+      <c r="J98">
+        <v>10</v>
+      </c>
+      <c r="K98">
+        <v>6000</v>
+      </c>
+      <c r="L98">
+        <v>605</v>
+      </c>
+      <c r="M98">
+        <v>7.7564102564102564</v>
+      </c>
+      <c r="N98" t="s">
+        <v>52</v>
+      </c>
+      <c r="O98" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>